--- a/Hardware/Design/UI Board/bom/UI_bom.xlsx
+++ b/Hardware/Design/UI Board/bom/UI_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69f5ad8fb782b24f/Documents/Power Amp/Manufacturing Files/front board/bom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69f5ad8fb782b24f/Documents/GitHub/Home-Audio-System/Hardware/Design/UI Board/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="53" documentId="8_{3CEE2375-C39A-4B89-AB92-309E0860C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C8FE4F1-39D0-4F88-BD31-FDDFAE5B396A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E34EAFCE-99E5-4EFC-B45F-82AD8C61B599}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E34EAFCE-99E5-4EFC-B45F-82AD8C61B599}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
